--- a/biology/Zoologie/Chthonius_zmaj/Chthonius_zmaj.xlsx
+++ b/biology/Zoologie/Chthonius_zmaj/Chthonius_zmaj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chthonius zmaj est une espèce de pseudoscorpions de la famille des Chthoniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Macédoine du Nord[1]. Elle se rencontre dans une grotte à Torbeški Most près de Mavrovi Anovi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Macédoine du Nord. Elle se rencontre dans une grotte à Torbeški Most près de Mavrovi Anovi.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ćurčić, Dimitrijević, Makarov, Lučić &amp; Karamata, 1997 : New and little-known false scorpions from the Balkan Peninsula, principally from caves, belonging to the families Chthoniidae and Neobisiidae (Arachnida, Pseudoscorpiones). Monographs of the Faculty of Biology, University of Belgrade, vol. 2, p. 1-159.</t>
         </is>
